--- a/TestsScenarios/CZC.xlsx
+++ b/TestsScenarios/CZC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\robotFrameWork\Testovačka\Continero\TestsScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34AAC3-024D-4908-9E04-A5C98FB68E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E78BD4-5825-4568-90C1-1373DAE94323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainScenario" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
     <t>User calculate final price of order</t>
   </si>
   <si>
-    <t>User check if sortin is ok</t>
-  </si>
-  <si>
     <t>User check If is in Cart</t>
+  </si>
+  <si>
+    <t>User check if sorting is ok</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1102,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
